--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -66,9 +66,6 @@
     <t>Ryan Shawcross</t>
   </si>
   <si>
-    <t>Cesc Fàbregas</t>
-  </si>
-  <si>
     <t>Eden Hazard</t>
   </si>
   <si>
@@ -78,9 +75,6 @@
     <t>Phil Jones</t>
   </si>
   <si>
-    <t>Gaël Clichy</t>
-  </si>
-  <si>
     <t>Gylfi Sigurdsson</t>
   </si>
   <si>
@@ -177,9 +171,6 @@
     <t>Mathieu Debuchy</t>
   </si>
   <si>
-    <t>Mauro Zárate</t>
-  </si>
-  <si>
     <t>Aaron Ramsey</t>
   </si>
   <si>
@@ -198,15 +189,9 @@
     <t>Alberto Moreno</t>
   </si>
   <si>
-    <t>Cheikhou Kouyaté</t>
-  </si>
-  <si>
     <t>John Terry</t>
   </si>
   <si>
-    <t>César Azpilicueta</t>
-  </si>
-  <si>
     <t>Steven Caulker</t>
   </si>
   <si>
@@ -243,9 +228,6 @@
     <t>Hugo Lloris</t>
   </si>
   <si>
-    <t>Martín Demichelis</t>
-  </si>
-  <si>
     <t>Marc Wilson</t>
   </si>
   <si>
@@ -258,9 +240,6 @@
     <t>Christian Eriksen</t>
   </si>
   <si>
-    <t>André Schürrle</t>
-  </si>
-  <si>
     <t>Andrew Robertson</t>
   </si>
   <si>
@@ -306,9 +285,6 @@
     <t>Marouane Chamakh</t>
   </si>
   <si>
-    <t>Alexis Sánchez</t>
-  </si>
-  <si>
     <t>Lee Cattermole</t>
   </si>
   <si>
@@ -318,9 +294,6 @@
     <t>Leroy Fer</t>
   </si>
   <si>
-    <t>Graziano Pellè</t>
-  </si>
-  <si>
     <t>Alex Bruce</t>
   </si>
   <si>
@@ -411,18 +384,12 @@
     <t>Connor Wickham</t>
   </si>
   <si>
-    <t>Ángel Di María</t>
-  </si>
-  <si>
     <t>Adam Johnson</t>
   </si>
   <si>
     <t>Per Mertesacker</t>
   </si>
   <si>
-    <t>Rémy Cabella</t>
-  </si>
-  <si>
     <t>Rolando Aarons</t>
   </si>
   <si>
@@ -441,9 +408,6 @@
     <t>Junior Hoilett</t>
   </si>
   <si>
-    <t>Mesut Özil</t>
-  </si>
-  <si>
     <t>Andy King</t>
   </si>
   <si>
@@ -588,18 +552,12 @@
     <t>Darren Fletcher</t>
   </si>
   <si>
-    <t>Sergio Agüero</t>
-  </si>
-  <si>
     <t>John Stones</t>
   </si>
   <si>
     <t>Michael Keane</t>
   </si>
   <si>
-    <t>Sébastien Pocognoli</t>
-  </si>
-  <si>
     <t>Stephen Ireland</t>
   </si>
   <si>
@@ -621,9 +579,6 @@
     <t>Aaron Cresswell</t>
   </si>
   <si>
-    <t>Adrián</t>
-  </si>
-  <si>
     <t>Dean Hammond</t>
   </si>
   <si>
@@ -642,9 +597,6 @@
     <t>Gareth Barry</t>
   </si>
   <si>
-    <t>Yaya Touré</t>
-  </si>
-  <si>
     <t>Craig Dawson</t>
   </si>
   <si>
@@ -658,6 +610,54 @@
   </si>
   <si>
     <t>Steve Sidwell</t>
+  </si>
+  <si>
+    <t>Cesc Fabregas</t>
+  </si>
+  <si>
+    <t>Gael Clichy</t>
+  </si>
+  <si>
+    <t>Mauro Zarate</t>
+  </si>
+  <si>
+    <t>Cheikhou Kouyate</t>
+  </si>
+  <si>
+    <t>Cesar Azpilicueta</t>
+  </si>
+  <si>
+    <t>Martin Demichelis</t>
+  </si>
+  <si>
+    <t>Andre Schurrle</t>
+  </si>
+  <si>
+    <t>Alexis Sanchez</t>
+  </si>
+  <si>
+    <t>Graziano Pelle</t>
+  </si>
+  <si>
+    <t>Angel Di Maria</t>
+  </si>
+  <si>
+    <t>Remy Cabella</t>
+  </si>
+  <si>
+    <t>Sebastien Pocognoli</t>
+  </si>
+  <si>
+    <t>Sergio Aguero</t>
+  </si>
+  <si>
+    <t>Adrian</t>
+  </si>
+  <si>
+    <t>Yaya Toure</t>
+  </si>
+  <si>
+    <t>Mesut Ozil</t>
   </si>
 </sst>
 </file>
@@ -998,8 +998,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J211"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A189" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:J200"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1007,6 +1007,8 @@
     <col min="3" max="3" width="9.140625" customWidth="1"/>
     <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.140625" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -1017,13 +1019,13 @@
         <v>0</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>76.5</v>
       </c>
       <c r="D1">
         <v>32.700000000000003</v>
       </c>
       <c r="E1">
-        <v>76.5</v>
+        <v>2</v>
       </c>
       <c r="F1">
         <v>0</v>
@@ -1049,13 +1051,13 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.7</v>
+        <v>76.8</v>
       </c>
       <c r="D2">
         <v>46</v>
       </c>
       <c r="E2">
-        <v>76.8</v>
+        <v>0.7</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -1081,13 +1083,13 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <v>3.3</v>
+        <v>87.9</v>
       </c>
       <c r="D3">
         <v>68.7</v>
       </c>
       <c r="E3">
-        <v>87.9</v>
+        <v>3.3</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -1102,7 +1104,7 @@
         <v>2</v>
       </c>
       <c r="J3" t="s">
-        <v>16</v>
+        <v>198</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -1113,13 +1115,13 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>3.3</v>
+        <v>89.6</v>
       </c>
       <c r="D4">
         <v>41.7</v>
       </c>
       <c r="E4">
-        <v>89.6</v>
+        <v>3.3</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -1134,7 +1136,7 @@
         <v>2</v>
       </c>
       <c r="J4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -1145,13 +1147,13 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>80.400000000000006</v>
       </c>
       <c r="D5">
         <v>46</v>
       </c>
       <c r="E5">
-        <v>80.400000000000006</v>
+        <v>1</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1166,7 +1168,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -1177,13 +1179,13 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.7</v>
+        <v>91.5</v>
       </c>
       <c r="D6">
         <v>54.7</v>
       </c>
       <c r="E6">
-        <v>91.5</v>
+        <v>0.7</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1198,7 +1200,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -1209,13 +1211,13 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.5</v>
+        <v>78.2</v>
       </c>
       <c r="D7">
         <v>62</v>
       </c>
       <c r="E7">
-        <v>78.2</v>
+        <v>0.5</v>
       </c>
       <c r="F7">
         <v>0.5</v>
@@ -1230,7 +1232,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>20</v>
+        <v>199</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -1241,13 +1243,13 @@
         <v>4</v>
       </c>
       <c r="C8">
-        <v>2.7</v>
+        <v>86.4</v>
       </c>
       <c r="D8">
         <v>39.299999999999997</v>
       </c>
       <c r="E8">
-        <v>86.4</v>
+        <v>2.7</v>
       </c>
       <c r="F8">
         <v>0.3</v>
@@ -1262,7 +1264,7 @@
         <v>2</v>
       </c>
       <c r="J8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -1273,13 +1275,13 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>86.9</v>
       </c>
       <c r="D9">
         <v>79</v>
       </c>
       <c r="E9">
-        <v>86.9</v>
+        <v>1</v>
       </c>
       <c r="F9">
         <v>0.3</v>
@@ -1294,7 +1296,7 @@
         <v>2</v>
       </c>
       <c r="J9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -1305,13 +1307,13 @@
         <v>1</v>
       </c>
       <c r="C10">
-        <v>2.2999999999999998</v>
+        <v>79.5</v>
       </c>
       <c r="D10">
         <v>37.299999999999997</v>
       </c>
       <c r="E10">
-        <v>79.5</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1326,7 +1328,7 @@
         <v>2</v>
       </c>
       <c r="J10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -1337,13 +1339,13 @@
         <v>1</v>
       </c>
       <c r="C11">
-        <v>0.3</v>
+        <v>66.900000000000006</v>
       </c>
       <c r="D11">
         <v>46.3</v>
       </c>
       <c r="E11">
-        <v>66.900000000000006</v>
+        <v>0.3</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1358,7 +1360,7 @@
         <v>2</v>
       </c>
       <c r="J11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -1369,13 +1371,13 @@
         <v>1</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>82.8</v>
       </c>
       <c r="D12">
         <v>56.3</v>
       </c>
       <c r="E12">
-        <v>82.8</v>
+        <v>1</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -1390,7 +1392,7 @@
         <v>2</v>
       </c>
       <c r="J12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -1401,13 +1403,13 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>77.400000000000006</v>
       </c>
       <c r="D13">
         <v>53</v>
       </c>
       <c r="E13">
-        <v>77.400000000000006</v>
+        <v>0</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -1422,7 +1424,7 @@
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1433,13 +1435,13 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.3</v>
+        <v>86.3</v>
       </c>
       <c r="D14">
         <v>48.7</v>
       </c>
       <c r="E14">
-        <v>86.3</v>
+        <v>0.3</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -1454,7 +1456,7 @@
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -1465,13 +1467,13 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>73.599999999999994</v>
       </c>
       <c r="D15">
         <v>36.700000000000003</v>
       </c>
       <c r="E15">
-        <v>73.599999999999994</v>
+        <v>1</v>
       </c>
       <c r="F15">
         <v>0.3</v>
@@ -1486,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -1497,13 +1499,13 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>2</v>
+        <v>95.2</v>
       </c>
       <c r="D16">
         <v>105</v>
       </c>
       <c r="E16">
-        <v>95.2</v>
+        <v>2</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -1518,7 +1520,7 @@
         <v>2</v>
       </c>
       <c r="J16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -1529,13 +1531,13 @@
         <v>2</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>73.2</v>
       </c>
       <c r="D17">
         <v>28</v>
       </c>
       <c r="E17">
-        <v>73.2</v>
+        <v>1</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1550,7 +1552,7 @@
         <v>2</v>
       </c>
       <c r="J17" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -1561,13 +1563,13 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.3</v>
+        <v>90.6</v>
       </c>
       <c r="D18">
         <v>63.7</v>
       </c>
       <c r="E18">
-        <v>90.6</v>
+        <v>0.3</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1582,7 +1584,7 @@
         <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -1593,13 +1595,13 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>58.9</v>
       </c>
       <c r="D19">
         <v>30</v>
       </c>
       <c r="E19">
-        <v>58.9</v>
+        <v>0</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1614,7 +1616,7 @@
         <v>3</v>
       </c>
       <c r="J19" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -1625,13 +1627,13 @@
         <v>1</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>84.5</v>
       </c>
       <c r="D20">
         <v>36.700000000000003</v>
       </c>
       <c r="E20">
-        <v>84.5</v>
+        <v>1</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1646,7 +1648,7 @@
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -1657,13 +1659,13 @@
         <v>1</v>
       </c>
       <c r="C21">
-        <v>1.3</v>
+        <v>89.5</v>
       </c>
       <c r="D21">
         <v>41.3</v>
       </c>
       <c r="E21">
-        <v>89.5</v>
+        <v>1.3</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1678,7 +1680,7 @@
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -1689,13 +1691,13 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>89.6</v>
       </c>
       <c r="D22">
         <v>54.3</v>
       </c>
       <c r="E22">
-        <v>89.6</v>
+        <v>0</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -1710,7 +1712,7 @@
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -1721,13 +1723,13 @@
         <v>2</v>
       </c>
       <c r="C23">
-        <v>1.3</v>
+        <v>85.1</v>
       </c>
       <c r="D23">
         <v>51.3</v>
       </c>
       <c r="E23">
-        <v>85.1</v>
+        <v>1.3</v>
       </c>
       <c r="F23">
         <v>1</v>
@@ -1742,7 +1744,7 @@
         <v>2</v>
       </c>
       <c r="J23" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -1753,13 +1755,13 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.5</v>
+        <v>90.8</v>
       </c>
       <c r="D24">
         <v>65</v>
       </c>
       <c r="E24">
-        <v>90.8</v>
+        <v>0.5</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -1774,7 +1776,7 @@
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -1785,13 +1787,13 @@
         <v>1</v>
       </c>
       <c r="C25">
-        <v>0.7</v>
+        <v>75</v>
       </c>
       <c r="D25">
         <v>21.3</v>
       </c>
       <c r="E25">
-        <v>75</v>
+        <v>0.7</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -1806,7 +1808,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -1817,13 +1819,13 @@
         <v>0</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>85.4</v>
       </c>
       <c r="D26">
         <v>27.3</v>
       </c>
       <c r="E26">
-        <v>85.4</v>
+        <v>0</v>
       </c>
       <c r="F26">
         <v>0.3</v>
@@ -1838,7 +1840,7 @@
         <v>2</v>
       </c>
       <c r="J26" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -1849,13 +1851,13 @@
         <v>1</v>
       </c>
       <c r="C27">
-        <v>3</v>
+        <v>89.4</v>
       </c>
       <c r="D27">
         <v>53.3</v>
       </c>
       <c r="E27">
-        <v>89.4</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>2</v>
@@ -1870,7 +1872,7 @@
         <v>2</v>
       </c>
       <c r="J27" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -1881,13 +1883,13 @@
         <v>0</v>
       </c>
       <c r="C28">
-        <v>1.3</v>
+        <v>82.4</v>
       </c>
       <c r="D28">
         <v>39.700000000000003</v>
       </c>
       <c r="E28">
-        <v>82.4</v>
+        <v>1.3</v>
       </c>
       <c r="F28">
         <v>0.3</v>
@@ -1902,7 +1904,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -1913,13 +1915,13 @@
         <v>0</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>89.3</v>
       </c>
       <c r="D29">
         <v>53</v>
       </c>
       <c r="E29">
-        <v>89.3</v>
+        <v>0</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -1934,7 +1936,7 @@
         <v>2</v>
       </c>
       <c r="J29" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -1945,13 +1947,13 @@
         <v>0</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>79.2</v>
       </c>
       <c r="D30">
         <v>38.5</v>
       </c>
       <c r="E30">
-        <v>79.2</v>
+        <v>1</v>
       </c>
       <c r="F30">
         <v>1</v>
@@ -1966,7 +1968,7 @@
         <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -1977,13 +1979,13 @@
         <v>0</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>71.400000000000006</v>
       </c>
       <c r="D31">
         <v>7</v>
       </c>
       <c r="E31">
-        <v>71.400000000000006</v>
+        <v>0</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -1998,7 +2000,7 @@
         <v>2</v>
       </c>
       <c r="J31" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -2009,13 +2011,13 @@
         <v>0</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>85.3</v>
       </c>
       <c r="D32">
         <v>54.5</v>
       </c>
       <c r="E32">
-        <v>85.3</v>
+        <v>1</v>
       </c>
       <c r="F32">
         <v>0.5</v>
@@ -2030,7 +2032,7 @@
         <v>2</v>
       </c>
       <c r="J32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -2041,13 +2043,13 @@
         <v>0</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D33">
         <v>15</v>
       </c>
       <c r="E33">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="F33">
         <v>1</v>
@@ -2062,7 +2064,7 @@
         <v>2</v>
       </c>
       <c r="J33" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -2073,13 +2075,13 @@
         <v>1</v>
       </c>
       <c r="C34">
-        <v>2</v>
+        <v>86.5</v>
       </c>
       <c r="D34">
         <v>47</v>
       </c>
       <c r="E34">
-        <v>86.5</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1.7</v>
@@ -2094,7 +2096,7 @@
         <v>2</v>
       </c>
       <c r="J34" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -2105,13 +2107,13 @@
         <v>0</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>88.7</v>
       </c>
       <c r="D35">
         <v>62</v>
       </c>
       <c r="E35">
-        <v>88.7</v>
+        <v>0</v>
       </c>
       <c r="F35">
         <v>0</v>
@@ -2126,7 +2128,7 @@
         <v>1</v>
       </c>
       <c r="J35" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -2137,13 +2139,13 @@
         <v>0</v>
       </c>
       <c r="C36">
-        <v>0.3</v>
+        <v>84.4</v>
       </c>
       <c r="D36">
         <v>55.7</v>
       </c>
       <c r="E36">
-        <v>84.4</v>
+        <v>0.3</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -2158,7 +2160,7 @@
         <v>2</v>
       </c>
       <c r="J36" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
@@ -2169,13 +2171,13 @@
         <v>0</v>
       </c>
       <c r="C37">
-        <v>1</v>
+        <v>78.099999999999994</v>
       </c>
       <c r="D37">
         <v>21.3</v>
       </c>
       <c r="E37">
-        <v>78.099999999999994</v>
+        <v>1</v>
       </c>
       <c r="F37">
         <v>0.7</v>
@@ -2190,7 +2192,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
@@ -2201,13 +2203,13 @@
         <v>0</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>87.4</v>
       </c>
       <c r="D38">
         <v>47.5</v>
       </c>
       <c r="E38">
-        <v>87.4</v>
+        <v>0</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -2222,7 +2224,7 @@
         <v>2</v>
       </c>
       <c r="J38" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
@@ -2233,13 +2235,13 @@
         <v>0</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>78.3</v>
       </c>
       <c r="D39">
         <v>47.7</v>
       </c>
       <c r="E39">
-        <v>78.3</v>
+        <v>0</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -2254,7 +2256,7 @@
         <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
@@ -2265,13 +2267,13 @@
         <v>0</v>
       </c>
       <c r="C40">
-        <v>0.5</v>
+        <v>92.9</v>
       </c>
       <c r="D40">
         <v>21</v>
       </c>
       <c r="E40">
-        <v>92.9</v>
+        <v>0.5</v>
       </c>
       <c r="F40">
         <v>0</v>
@@ -2286,7 +2288,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="s">
-        <v>53</v>
+        <v>200</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
@@ -2297,13 +2299,13 @@
         <v>0</v>
       </c>
       <c r="C41">
-        <v>2</v>
+        <v>85.9</v>
       </c>
       <c r="D41">
         <v>97</v>
       </c>
       <c r="E41">
-        <v>85.9</v>
+        <v>2</v>
       </c>
       <c r="F41">
         <v>0.3</v>
@@ -2318,7 +2320,7 @@
         <v>2</v>
       </c>
       <c r="J41" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
@@ -2329,13 +2331,13 @@
         <v>0</v>
       </c>
       <c r="C42">
-        <v>1</v>
+        <v>85.9</v>
       </c>
       <c r="D42">
         <v>71</v>
       </c>
       <c r="E42">
-        <v>85.9</v>
+        <v>1</v>
       </c>
       <c r="F42">
         <v>1.7</v>
@@ -2350,7 +2352,7 @@
         <v>2</v>
       </c>
       <c r="J42" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
@@ -2361,13 +2363,13 @@
         <v>0</v>
       </c>
       <c r="C43">
-        <v>0.3</v>
+        <v>82.4</v>
       </c>
       <c r="D43">
         <v>55</v>
       </c>
       <c r="E43">
-        <v>82.4</v>
+        <v>0.3</v>
       </c>
       <c r="F43">
         <v>0</v>
@@ -2382,7 +2384,7 @@
         <v>1</v>
       </c>
       <c r="J43" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
@@ -2393,13 +2395,13 @@
         <v>0</v>
       </c>
       <c r="C44">
-        <v>0.3</v>
+        <v>90.5</v>
       </c>
       <c r="D44">
         <v>66.7</v>
       </c>
       <c r="E44">
-        <v>90.5</v>
+        <v>0.3</v>
       </c>
       <c r="F44">
         <v>0</v>
@@ -2414,7 +2416,7 @@
         <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
@@ -2425,13 +2427,13 @@
         <v>0</v>
       </c>
       <c r="C45">
-        <v>4</v>
+        <v>84</v>
       </c>
       <c r="D45">
         <v>52</v>
       </c>
       <c r="E45">
-        <v>84</v>
+        <v>4</v>
       </c>
       <c r="F45">
         <v>2.2999999999999998</v>
@@ -2446,7 +2448,7 @@
         <v>2</v>
       </c>
       <c r="J45" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
@@ -2457,13 +2459,13 @@
         <v>0</v>
       </c>
       <c r="C46">
-        <v>0.5</v>
+        <v>89.2</v>
       </c>
       <c r="D46">
         <v>37</v>
       </c>
       <c r="E46">
-        <v>89.2</v>
+        <v>0.5</v>
       </c>
       <c r="F46">
         <v>1</v>
@@ -2478,7 +2480,7 @@
         <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
@@ -2489,13 +2491,13 @@
         <v>1</v>
       </c>
       <c r="C47">
-        <v>0.7</v>
+        <v>82.2</v>
       </c>
       <c r="D47">
         <v>33.700000000000003</v>
       </c>
       <c r="E47">
-        <v>82.2</v>
+        <v>0.7</v>
       </c>
       <c r="F47">
         <v>0.3</v>
@@ -2510,7 +2512,7 @@
         <v>1</v>
       </c>
       <c r="J47" t="s">
-        <v>60</v>
+        <v>201</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
@@ -2521,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="C48">
-        <v>0.3</v>
+        <v>84.4</v>
       </c>
       <c r="D48">
         <v>47</v>
       </c>
       <c r="E48">
-        <v>84.4</v>
+        <v>0.3</v>
       </c>
       <c r="F48">
         <v>0</v>
@@ -2542,7 +2544,7 @@
         <v>1</v>
       </c>
       <c r="J48" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
@@ -2553,13 +2555,13 @@
         <v>0</v>
       </c>
       <c r="C49">
-        <v>0.3</v>
+        <v>80.400000000000006</v>
       </c>
       <c r="D49">
         <v>47.7</v>
       </c>
       <c r="E49">
-        <v>80.400000000000006</v>
+        <v>0.3</v>
       </c>
       <c r="F49">
         <v>0.3</v>
@@ -2574,7 +2576,7 @@
         <v>1</v>
       </c>
       <c r="J49" t="s">
-        <v>62</v>
+        <v>202</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
@@ -2585,13 +2587,13 @@
         <v>0</v>
       </c>
       <c r="C50">
-        <v>0.7</v>
+        <v>77.2</v>
       </c>
       <c r="D50">
         <v>33.700000000000003</v>
       </c>
       <c r="E50">
-        <v>77.2</v>
+        <v>0.7</v>
       </c>
       <c r="F50">
         <v>0</v>
@@ -2606,7 +2608,7 @@
         <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
@@ -2617,13 +2619,13 @@
         <v>0</v>
       </c>
       <c r="C51">
-        <v>0.3</v>
+        <v>70.900000000000006</v>
       </c>
       <c r="D51">
         <v>28.7</v>
       </c>
       <c r="E51">
-        <v>70.900000000000006</v>
+        <v>0.3</v>
       </c>
       <c r="F51">
         <v>0.7</v>
@@ -2638,7 +2640,7 @@
         <v>1</v>
       </c>
       <c r="J51" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
@@ -2649,13 +2651,13 @@
         <v>0</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>83.7</v>
       </c>
       <c r="D52">
         <v>47</v>
       </c>
       <c r="E52">
-        <v>83.7</v>
+        <v>0</v>
       </c>
       <c r="F52">
         <v>0</v>
@@ -2670,7 +2672,7 @@
         <v>1</v>
       </c>
       <c r="J52" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
@@ -2681,13 +2683,13 @@
         <v>0</v>
       </c>
       <c r="C53">
-        <v>2</v>
+        <v>78.599999999999994</v>
       </c>
       <c r="D53">
         <v>34.299999999999997</v>
       </c>
       <c r="E53">
-        <v>78.599999999999994</v>
+        <v>2</v>
       </c>
       <c r="F53">
         <v>2.7</v>
@@ -2702,7 +2704,7 @@
         <v>2</v>
       </c>
       <c r="J53" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
@@ -2713,13 +2715,13 @@
         <v>0</v>
       </c>
       <c r="C54">
-        <v>0.3</v>
+        <v>80.5</v>
       </c>
       <c r="D54">
         <v>42.7</v>
       </c>
       <c r="E54">
-        <v>80.5</v>
+        <v>0.3</v>
       </c>
       <c r="F54">
         <v>0.3</v>
@@ -2734,7 +2736,7 @@
         <v>1</v>
       </c>
       <c r="J54" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
@@ -2745,13 +2747,13 @@
         <v>0</v>
       </c>
       <c r="C55">
-        <v>3</v>
+        <v>84.2</v>
       </c>
       <c r="D55">
         <v>38</v>
       </c>
       <c r="E55">
-        <v>84.2</v>
+        <v>3</v>
       </c>
       <c r="F55">
         <v>1</v>
@@ -2766,7 +2768,7 @@
         <v>1</v>
       </c>
       <c r="J55" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
@@ -2777,13 +2779,13 @@
         <v>0</v>
       </c>
       <c r="C56">
-        <v>2</v>
+        <v>85.6</v>
       </c>
       <c r="D56">
         <v>60.3</v>
       </c>
       <c r="E56">
-        <v>85.6</v>
+        <v>2</v>
       </c>
       <c r="F56">
         <v>1.3</v>
@@ -2798,7 +2800,7 @@
         <v>2</v>
       </c>
       <c r="J56" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
@@ -2809,13 +2811,13 @@
         <v>0</v>
       </c>
       <c r="C57">
-        <v>0.3</v>
+        <v>85.1</v>
       </c>
       <c r="D57">
         <v>40.299999999999997</v>
       </c>
       <c r="E57">
-        <v>85.1</v>
+        <v>0.3</v>
       </c>
       <c r="F57">
         <v>0.3</v>
@@ -2830,7 +2832,7 @@
         <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
@@ -2841,13 +2843,13 @@
         <v>1</v>
       </c>
       <c r="C58">
-        <v>2.7</v>
+        <v>81</v>
       </c>
       <c r="D58">
         <v>40.299999999999997</v>
       </c>
       <c r="E58">
-        <v>81</v>
+        <v>2.7</v>
       </c>
       <c r="F58">
         <v>2.7</v>
@@ -2862,7 +2864,7 @@
         <v>2</v>
       </c>
       <c r="J58" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
@@ -2873,13 +2875,13 @@
         <v>0</v>
       </c>
       <c r="C59">
-        <v>1</v>
+        <v>91.8</v>
       </c>
       <c r="D59">
         <v>30.5</v>
       </c>
       <c r="E59">
-        <v>91.8</v>
+        <v>1</v>
       </c>
       <c r="F59">
         <v>0</v>
@@ -2894,7 +2896,7 @@
         <v>2</v>
       </c>
       <c r="J59" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
@@ -2905,13 +2907,13 @@
         <v>0</v>
       </c>
       <c r="C60">
-        <v>0.7</v>
+        <v>62.2</v>
       </c>
       <c r="D60">
         <v>30</v>
       </c>
       <c r="E60">
-        <v>62.2</v>
+        <v>0.7</v>
       </c>
       <c r="F60">
         <v>0.7</v>
@@ -2926,7 +2928,7 @@
         <v>1</v>
       </c>
       <c r="J60" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
@@ -2937,13 +2939,13 @@
         <v>0</v>
       </c>
       <c r="C61">
-        <v>0</v>
+        <v>72.099999999999994</v>
       </c>
       <c r="D61">
         <v>34.700000000000003</v>
       </c>
       <c r="E61">
-        <v>72.099999999999994</v>
+        <v>0</v>
       </c>
       <c r="F61">
         <v>0</v>
@@ -2958,7 +2960,7 @@
         <v>3</v>
       </c>
       <c r="J61" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
@@ -2969,13 +2971,13 @@
         <v>0</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>90.1</v>
       </c>
       <c r="D62">
         <v>54</v>
       </c>
       <c r="E62">
-        <v>90.1</v>
+        <v>0</v>
       </c>
       <c r="F62">
         <v>0</v>
@@ -2990,7 +2992,7 @@
         <v>1</v>
       </c>
       <c r="J62" t="s">
-        <v>75</v>
+        <v>203</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
@@ -3001,13 +3003,13 @@
         <v>0</v>
       </c>
       <c r="C63">
-        <v>0.7</v>
+        <v>83.8</v>
       </c>
       <c r="D63">
         <v>47.3</v>
       </c>
       <c r="E63">
-        <v>83.8</v>
+        <v>0.7</v>
       </c>
       <c r="F63">
         <v>0</v>
@@ -3022,7 +3024,7 @@
         <v>1</v>
       </c>
       <c r="J63" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
@@ -3033,13 +3035,13 @@
         <v>0</v>
       </c>
       <c r="C64">
-        <v>0.7</v>
+        <v>80.5</v>
       </c>
       <c r="D64">
         <v>49.7</v>
       </c>
       <c r="E64">
-        <v>80.5</v>
+        <v>0.7</v>
       </c>
       <c r="F64">
         <v>0</v>
@@ -3054,7 +3056,7 @@
         <v>2</v>
       </c>
       <c r="J64" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
@@ -3065,13 +3067,13 @@
         <v>2</v>
       </c>
       <c r="C65">
-        <v>1</v>
+        <v>82</v>
       </c>
       <c r="D65">
         <v>40.700000000000003</v>
       </c>
       <c r="E65">
-        <v>82</v>
+        <v>1</v>
       </c>
       <c r="F65">
         <v>1</v>
@@ -3086,7 +3088,7 @@
         <v>2</v>
       </c>
       <c r="J65" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
@@ -3097,13 +3099,13 @@
         <v>0</v>
       </c>
       <c r="C66">
-        <v>2</v>
+        <v>81.400000000000006</v>
       </c>
       <c r="D66">
         <v>53.7</v>
       </c>
       <c r="E66">
-        <v>81.400000000000006</v>
+        <v>2</v>
       </c>
       <c r="F66">
         <v>0.3</v>
@@ -3118,7 +3120,7 @@
         <v>2</v>
       </c>
       <c r="J66" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
@@ -3129,13 +3131,13 @@
         <v>0</v>
       </c>
       <c r="C67">
-        <v>0</v>
+        <v>85.5</v>
       </c>
       <c r="D67">
         <v>31</v>
       </c>
       <c r="E67">
-        <v>85.5</v>
+        <v>0</v>
       </c>
       <c r="F67">
         <v>1</v>
@@ -3150,7 +3152,7 @@
         <v>2</v>
       </c>
       <c r="J67" t="s">
-        <v>80</v>
+        <v>204</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
@@ -3161,13 +3163,13 @@
         <v>0</v>
       </c>
       <c r="C68">
-        <v>0.7</v>
+        <v>80.2</v>
       </c>
       <c r="D68">
         <v>38.700000000000003</v>
       </c>
       <c r="E68">
-        <v>80.2</v>
+        <v>0.7</v>
       </c>
       <c r="F68">
         <v>0.7</v>
@@ -3182,7 +3184,7 @@
         <v>1</v>
       </c>
       <c r="J68" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
@@ -3193,13 +3195,13 @@
         <v>0</v>
       </c>
       <c r="C69">
-        <v>0.3</v>
+        <v>82.2</v>
       </c>
       <c r="D69">
         <v>24.3</v>
       </c>
       <c r="E69">
-        <v>82.2</v>
+        <v>0.3</v>
       </c>
       <c r="F69">
         <v>0</v>
@@ -3214,7 +3216,7 @@
         <v>1</v>
       </c>
       <c r="J69" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
@@ -3225,13 +3227,13 @@
         <v>0</v>
       </c>
       <c r="C70">
-        <v>1</v>
+        <v>78.099999999999994</v>
       </c>
       <c r="D70">
         <v>35</v>
       </c>
       <c r="E70">
-        <v>78.099999999999994</v>
+        <v>1</v>
       </c>
       <c r="F70">
         <v>0.3</v>
@@ -3246,7 +3248,7 @@
         <v>1</v>
       </c>
       <c r="J70" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
@@ -3257,13 +3259,13 @@
         <v>0</v>
       </c>
       <c r="C71">
-        <v>0.3</v>
+        <v>89</v>
       </c>
       <c r="D71">
         <v>100</v>
       </c>
       <c r="E71">
-        <v>89</v>
+        <v>0.3</v>
       </c>
       <c r="F71">
         <v>0</v>
@@ -3278,7 +3280,7 @@
         <v>2</v>
       </c>
       <c r="J71" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
@@ -3289,13 +3291,13 @@
         <v>1</v>
       </c>
       <c r="C72">
-        <v>1</v>
+        <v>87.3</v>
       </c>
       <c r="D72">
         <v>47.3</v>
       </c>
       <c r="E72">
-        <v>87.3</v>
+        <v>1</v>
       </c>
       <c r="F72">
         <v>0.3</v>
@@ -3310,7 +3312,7 @@
         <v>1</v>
       </c>
       <c r="J72" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
@@ -3321,13 +3323,13 @@
         <v>0</v>
       </c>
       <c r="C73">
-        <v>1</v>
+        <v>89.8</v>
       </c>
       <c r="D73">
         <v>49</v>
       </c>
       <c r="E73">
-        <v>89.8</v>
+        <v>1</v>
       </c>
       <c r="F73">
         <v>1</v>
@@ -3342,7 +3344,7 @@
         <v>1</v>
       </c>
       <c r="J73" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
@@ -3353,13 +3355,13 @@
         <v>0</v>
       </c>
       <c r="C74">
-        <v>0.3</v>
+        <v>84.6</v>
       </c>
       <c r="D74">
         <v>56.3</v>
       </c>
       <c r="E74">
-        <v>84.6</v>
+        <v>0.3</v>
       </c>
       <c r="F74">
         <v>0</v>
@@ -3374,7 +3376,7 @@
         <v>2</v>
       </c>
       <c r="J74" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
@@ -3385,13 +3387,13 @@
         <v>0</v>
       </c>
       <c r="C75">
-        <v>0.3</v>
+        <v>93.7</v>
       </c>
       <c r="D75">
         <v>63</v>
       </c>
       <c r="E75">
-        <v>93.7</v>
+        <v>0.3</v>
       </c>
       <c r="F75">
         <v>0</v>
@@ -3406,7 +3408,7 @@
         <v>1</v>
       </c>
       <c r="J75" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
@@ -3417,13 +3419,13 @@
         <v>0</v>
       </c>
       <c r="C76">
-        <v>0.7</v>
+        <v>74.599999999999994</v>
       </c>
       <c r="D76">
         <v>19.7</v>
       </c>
       <c r="E76">
-        <v>74.599999999999994</v>
+        <v>0.7</v>
       </c>
       <c r="F76">
         <v>0.3</v>
@@ -3438,7 +3440,7 @@
         <v>0</v>
       </c>
       <c r="J76" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
@@ -3449,13 +3451,13 @@
         <v>0</v>
       </c>
       <c r="C77">
-        <v>0.7</v>
+        <v>78.7</v>
       </c>
       <c r="D77">
         <v>36</v>
       </c>
       <c r="E77">
-        <v>78.7</v>
+        <v>0.7</v>
       </c>
       <c r="F77">
         <v>0.3</v>
@@ -3470,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="J77" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
@@ -3481,13 +3483,13 @@
         <v>0</v>
       </c>
       <c r="C78">
-        <v>1.3</v>
+        <v>80.599999999999994</v>
       </c>
       <c r="D78">
         <v>24</v>
       </c>
       <c r="E78">
-        <v>80.599999999999994</v>
+        <v>1.3</v>
       </c>
       <c r="F78">
         <v>0.7</v>
@@ -3502,7 +3504,7 @@
         <v>2</v>
       </c>
       <c r="J78" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
@@ -3513,13 +3515,13 @@
         <v>0</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>92.9</v>
       </c>
       <c r="D79">
         <v>42.5</v>
       </c>
       <c r="E79">
-        <v>92.9</v>
+        <v>0</v>
       </c>
       <c r="F79">
         <v>0</v>
@@ -3534,7 +3536,7 @@
         <v>1</v>
       </c>
       <c r="J79" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
@@ -3545,13 +3547,13 @@
         <v>0</v>
       </c>
       <c r="C80">
-        <v>0</v>
+        <v>90.6</v>
       </c>
       <c r="D80">
         <v>56.7</v>
       </c>
       <c r="E80">
-        <v>90.6</v>
+        <v>0</v>
       </c>
       <c r="F80">
         <v>0</v>
@@ -3566,7 +3568,7 @@
         <v>1</v>
       </c>
       <c r="J80" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
@@ -3577,13 +3579,13 @@
         <v>0</v>
       </c>
       <c r="C81">
-        <v>1</v>
+        <v>80.5</v>
       </c>
       <c r="D81">
         <v>56.3</v>
       </c>
       <c r="E81">
-        <v>80.5</v>
+        <v>1</v>
       </c>
       <c r="F81">
         <v>0</v>
@@ -3598,7 +3600,7 @@
         <v>1</v>
       </c>
       <c r="J81" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
@@ -3609,13 +3611,13 @@
         <v>0</v>
       </c>
       <c r="C82">
-        <v>1.3</v>
+        <v>72.2</v>
       </c>
       <c r="D82">
         <v>36</v>
       </c>
       <c r="E82">
-        <v>72.2</v>
+        <v>1.3</v>
       </c>
       <c r="F82">
         <v>0</v>
@@ -3630,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="J82" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
@@ -3641,13 +3643,13 @@
         <v>1</v>
       </c>
       <c r="C83">
-        <v>3.3</v>
+        <v>79</v>
       </c>
       <c r="D83">
         <v>46</v>
       </c>
       <c r="E83">
-        <v>79</v>
+        <v>3.3</v>
       </c>
       <c r="F83">
         <v>0.3</v>
@@ -3662,7 +3664,7 @@
         <v>0</v>
       </c>
       <c r="J83" t="s">
-        <v>96</v>
+        <v>205</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
@@ -3673,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>88.3</v>
       </c>
       <c r="D84">
         <v>37</v>
       </c>
       <c r="E84">
-        <v>88.3</v>
+        <v>0</v>
       </c>
       <c r="F84">
         <v>0.3</v>
@@ -3694,7 +3696,7 @@
         <v>2</v>
       </c>
       <c r="J84" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
@@ -3705,13 +3707,13 @@
         <v>0</v>
       </c>
       <c r="C85">
-        <v>0.7</v>
+        <v>75.3</v>
       </c>
       <c r="D85">
         <v>25.7</v>
       </c>
       <c r="E85">
-        <v>75.3</v>
+        <v>0.7</v>
       </c>
       <c r="F85">
         <v>0</v>
@@ -3726,7 +3728,7 @@
         <v>0</v>
       </c>
       <c r="J85" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
@@ -3737,13 +3739,13 @@
         <v>1</v>
       </c>
       <c r="C86">
-        <v>2.5</v>
+        <v>85.5</v>
       </c>
       <c r="D86">
         <v>31</v>
       </c>
       <c r="E86">
-        <v>85.5</v>
+        <v>2.5</v>
       </c>
       <c r="F86">
         <v>0</v>
@@ -3758,7 +3760,7 @@
         <v>2</v>
       </c>
       <c r="J86" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
@@ -3769,13 +3771,13 @@
         <v>0</v>
       </c>
       <c r="C87">
-        <v>1.3</v>
+        <v>69.2</v>
       </c>
       <c r="D87">
         <v>30.3</v>
       </c>
       <c r="E87">
-        <v>69.2</v>
+        <v>1.3</v>
       </c>
       <c r="F87">
         <v>0</v>
@@ -3790,7 +3792,7 @@
         <v>0</v>
       </c>
       <c r="J87" t="s">
-        <v>100</v>
+        <v>206</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
@@ -3801,13 +3803,13 @@
         <v>0</v>
       </c>
       <c r="C88">
-        <v>0</v>
+        <v>73.900000000000006</v>
       </c>
       <c r="D88">
         <v>23</v>
       </c>
       <c r="E88">
-        <v>73.900000000000006</v>
+        <v>0</v>
       </c>
       <c r="F88">
         <v>0</v>
@@ -3822,7 +3824,7 @@
         <v>1</v>
       </c>
       <c r="J88" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
@@ -3833,13 +3835,13 @@
         <v>0</v>
       </c>
       <c r="C89">
-        <v>0.7</v>
+        <v>90.5</v>
       </c>
       <c r="D89">
         <v>42</v>
       </c>
       <c r="E89">
-        <v>90.5</v>
+        <v>0.7</v>
       </c>
       <c r="F89">
         <v>0.3</v>
@@ -3854,7 +3856,7 @@
         <v>1</v>
       </c>
       <c r="J89" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
@@ -3865,13 +3867,13 @@
         <v>0</v>
       </c>
       <c r="C90">
-        <v>0</v>
+        <v>75.400000000000006</v>
       </c>
       <c r="D90">
         <v>19</v>
       </c>
       <c r="E90">
-        <v>75.400000000000006</v>
+        <v>0</v>
       </c>
       <c r="F90">
         <v>0</v>
@@ -3886,7 +3888,7 @@
         <v>1</v>
       </c>
       <c r="J90" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
@@ -3897,13 +3899,13 @@
         <v>0</v>
       </c>
       <c r="C91">
-        <v>0.7</v>
+        <v>86.6</v>
       </c>
       <c r="D91">
         <v>37.299999999999997</v>
       </c>
       <c r="E91">
-        <v>86.6</v>
+        <v>0.7</v>
       </c>
       <c r="F91">
         <v>0.7</v>
@@ -3918,7 +3920,7 @@
         <v>2</v>
       </c>
       <c r="J91" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
@@ -3929,13 +3931,13 @@
         <v>1</v>
       </c>
       <c r="C92">
-        <v>1.7</v>
+        <v>82.8</v>
       </c>
       <c r="D92">
         <v>19.3</v>
       </c>
       <c r="E92">
-        <v>82.8</v>
+        <v>1.7</v>
       </c>
       <c r="F92">
         <v>0.7</v>
@@ -3950,7 +3952,7 @@
         <v>2</v>
       </c>
       <c r="J92" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
@@ -3961,13 +3963,13 @@
         <v>0</v>
       </c>
       <c r="C93">
-        <v>0</v>
+        <v>31.5</v>
       </c>
       <c r="D93">
         <v>29.7</v>
       </c>
       <c r="E93">
-        <v>31.5</v>
+        <v>0</v>
       </c>
       <c r="F93">
         <v>0</v>
@@ -3982,7 +3984,7 @@
         <v>3</v>
       </c>
       <c r="J93" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
@@ -3993,13 +3995,13 @@
         <v>0</v>
       </c>
       <c r="C94">
-        <v>1</v>
+        <v>74</v>
       </c>
       <c r="D94">
         <v>25.7</v>
       </c>
       <c r="E94">
-        <v>74</v>
+        <v>1</v>
       </c>
       <c r="F94">
         <v>0</v>
@@ -4014,7 +4016,7 @@
         <v>1</v>
       </c>
       <c r="J94" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
@@ -4025,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="C95">
-        <v>0</v>
+        <v>97.3</v>
       </c>
       <c r="D95">
         <v>37.5</v>
       </c>
       <c r="E95">
-        <v>97.3</v>
+        <v>0</v>
       </c>
       <c r="F95">
         <v>0</v>
@@ -4046,7 +4048,7 @@
         <v>1</v>
       </c>
       <c r="J95" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
@@ -4057,13 +4059,13 @@
         <v>0</v>
       </c>
       <c r="C96">
-        <v>0.7</v>
+        <v>85.2</v>
       </c>
       <c r="D96">
         <v>56.3</v>
       </c>
       <c r="E96">
-        <v>85.2</v>
+        <v>0.7</v>
       </c>
       <c r="F96">
         <v>0.3</v>
@@ -4078,7 +4080,7 @@
         <v>2</v>
       </c>
       <c r="J96" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
@@ -4089,13 +4091,13 @@
         <v>0</v>
       </c>
       <c r="C97">
-        <v>2</v>
+        <v>81.8</v>
       </c>
       <c r="D97">
         <v>22</v>
       </c>
       <c r="E97">
-        <v>81.8</v>
+        <v>2</v>
       </c>
       <c r="F97">
         <v>0</v>
@@ -4110,7 +4112,7 @@
         <v>2</v>
       </c>
       <c r="J97" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
@@ -4121,13 +4123,13 @@
         <v>1</v>
       </c>
       <c r="C98">
-        <v>1</v>
+        <v>57.7</v>
       </c>
       <c r="D98">
         <v>26</v>
       </c>
       <c r="E98">
-        <v>57.7</v>
+        <v>1</v>
       </c>
       <c r="F98">
         <v>1</v>
@@ -4142,7 +4144,7 @@
         <v>2</v>
       </c>
       <c r="J98" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
@@ -4153,13 +4155,13 @@
         <v>1</v>
       </c>
       <c r="C99">
-        <v>1.7</v>
+        <v>85.7</v>
       </c>
       <c r="D99">
         <v>28</v>
       </c>
       <c r="E99">
-        <v>85.7</v>
+        <v>1.7</v>
       </c>
       <c r="F99">
         <v>0</v>
@@ -4174,7 +4176,7 @@
         <v>0</v>
       </c>
       <c r="J99" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
@@ -4185,13 +4187,13 @@
         <v>0</v>
       </c>
       <c r="C100">
-        <v>2</v>
+        <v>72.7</v>
       </c>
       <c r="D100">
         <v>22</v>
       </c>
       <c r="E100">
-        <v>72.7</v>
+        <v>2</v>
       </c>
       <c r="F100">
         <v>1</v>
@@ -4206,7 +4208,7 @@
         <v>1</v>
       </c>
       <c r="J100" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
@@ -4217,13 +4219,13 @@
         <v>0</v>
       </c>
       <c r="C101">
-        <v>0</v>
+        <v>73.8</v>
       </c>
       <c r="D101">
         <v>28</v>
       </c>
       <c r="E101">
-        <v>73.8</v>
+        <v>0</v>
       </c>
       <c r="F101">
         <v>0</v>
@@ -4238,7 +4240,7 @@
         <v>1</v>
       </c>
       <c r="J101" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
@@ -4249,13 +4251,13 @@
         <v>0</v>
       </c>
       <c r="C102">
-        <v>0.3</v>
+        <v>37.4</v>
       </c>
       <c r="D102">
         <v>33</v>
       </c>
       <c r="E102">
-        <v>37.4</v>
+        <v>0.3</v>
       </c>
       <c r="F102">
         <v>0</v>
@@ -4270,7 +4272,7 @@
         <v>3</v>
       </c>
       <c r="J102" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
@@ -4281,13 +4283,13 @@
         <v>0</v>
       </c>
       <c r="C103">
-        <v>0.7</v>
+        <v>85.3</v>
       </c>
       <c r="D103">
         <v>38.700000000000003</v>
       </c>
       <c r="E103">
-        <v>85.3</v>
+        <v>0.7</v>
       </c>
       <c r="F103">
         <v>0</v>
@@ -4302,7 +4304,7 @@
         <v>1</v>
       </c>
       <c r="J103" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
@@ -4313,13 +4315,13 @@
         <v>0</v>
       </c>
       <c r="C104">
-        <v>0.5</v>
+        <v>89.2</v>
       </c>
       <c r="D104">
         <v>60</v>
       </c>
       <c r="E104">
-        <v>89.2</v>
+        <v>0.5</v>
       </c>
       <c r="F104">
         <v>0</v>
@@ -4334,7 +4336,7 @@
         <v>2</v>
       </c>
       <c r="J104" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
@@ -4345,13 +4347,13 @@
         <v>0</v>
       </c>
       <c r="C105">
-        <v>0</v>
+        <v>80.400000000000006</v>
       </c>
       <c r="D105">
         <v>92</v>
       </c>
       <c r="E105">
-        <v>80.400000000000006</v>
+        <v>0</v>
       </c>
       <c r="F105">
         <v>0</v>
@@ -4366,7 +4368,7 @@
         <v>1</v>
       </c>
       <c r="J105" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
@@ -4377,13 +4379,13 @@
         <v>0</v>
       </c>
       <c r="C106">
-        <v>0</v>
+        <v>90.7</v>
       </c>
       <c r="D106">
         <v>53.5</v>
       </c>
       <c r="E106">
-        <v>90.7</v>
+        <v>0</v>
       </c>
       <c r="F106">
         <v>0</v>
@@ -4398,7 +4400,7 @@
         <v>1</v>
       </c>
       <c r="J106" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
@@ -4409,13 +4411,13 @@
         <v>0</v>
       </c>
       <c r="C107">
-        <v>0.7</v>
+        <v>73.3</v>
       </c>
       <c r="D107">
         <v>38.700000000000003</v>
       </c>
       <c r="E107">
-        <v>73.3</v>
+        <v>0.7</v>
       </c>
       <c r="F107">
         <v>0.3</v>
@@ -4430,7 +4432,7 @@
         <v>1</v>
       </c>
       <c r="J107" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
@@ -4441,13 +4443,13 @@
         <v>0</v>
       </c>
       <c r="C108">
-        <v>0.7</v>
+        <v>83.8</v>
       </c>
       <c r="D108">
         <v>51.3</v>
       </c>
       <c r="E108">
-        <v>83.8</v>
+        <v>0.7</v>
       </c>
       <c r="F108">
         <v>0</v>
@@ -4462,7 +4464,7 @@
         <v>2</v>
       </c>
       <c r="J108" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
@@ -4473,13 +4475,13 @@
         <v>0</v>
       </c>
       <c r="C109">
-        <v>0</v>
+        <v>89.2</v>
       </c>
       <c r="D109">
         <v>37</v>
       </c>
       <c r="E109">
-        <v>89.2</v>
+        <v>0</v>
       </c>
       <c r="F109">
         <v>0</v>
@@ -4494,7 +4496,7 @@
         <v>1</v>
       </c>
       <c r="J109" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
@@ -4505,13 +4507,13 @@
         <v>0</v>
       </c>
       <c r="C110">
-        <v>0.7</v>
+        <v>88.3</v>
       </c>
       <c r="D110">
         <v>54.3</v>
       </c>
       <c r="E110">
-        <v>88.3</v>
+        <v>0.7</v>
       </c>
       <c r="F110">
         <v>0</v>
@@ -4526,7 +4528,7 @@
         <v>1</v>
       </c>
       <c r="J110" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
@@ -4537,13 +4539,13 @@
         <v>0</v>
       </c>
       <c r="C111">
-        <v>0.5</v>
+        <v>75</v>
       </c>
       <c r="D111">
         <v>48</v>
       </c>
       <c r="E111">
-        <v>75</v>
+        <v>0.5</v>
       </c>
       <c r="F111">
         <v>0</v>
@@ -4558,7 +4560,7 @@
         <v>1</v>
       </c>
       <c r="J111" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
@@ -4569,13 +4571,13 @@
         <v>0</v>
       </c>
       <c r="C112">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="D112">
         <v>31</v>
       </c>
       <c r="E112">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="F112">
         <v>0</v>
@@ -4590,7 +4592,7 @@
         <v>1</v>
       </c>
       <c r="J112" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
@@ -4601,13 +4603,13 @@
         <v>0</v>
       </c>
       <c r="C113">
-        <v>0.7</v>
+        <v>69.8</v>
       </c>
       <c r="D113">
         <v>28.7</v>
       </c>
       <c r="E113">
-        <v>69.8</v>
+        <v>0.7</v>
       </c>
       <c r="F113">
         <v>0</v>
@@ -4622,7 +4624,7 @@
         <v>2</v>
       </c>
       <c r="J113" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
@@ -4633,13 +4635,13 @@
         <v>1</v>
       </c>
       <c r="C114">
-        <v>0.3</v>
+        <v>87.9</v>
       </c>
       <c r="D114">
         <v>41.3</v>
       </c>
       <c r="E114">
-        <v>87.9</v>
+        <v>0.3</v>
       </c>
       <c r="F114">
         <v>0</v>
@@ -4654,7 +4656,7 @@
         <v>1</v>
       </c>
       <c r="J114" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
@@ -4665,13 +4667,13 @@
         <v>0</v>
       </c>
       <c r="C115">
-        <v>0</v>
+        <v>77.8</v>
       </c>
       <c r="D115">
         <v>51</v>
       </c>
       <c r="E115">
-        <v>77.8</v>
+        <v>0</v>
       </c>
       <c r="F115">
         <v>0</v>
@@ -4686,7 +4688,7 @@
         <v>1</v>
       </c>
       <c r="J115" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
@@ -4697,13 +4699,13 @@
         <v>0</v>
       </c>
       <c r="C116">
-        <v>0.5</v>
+        <v>89.7</v>
       </c>
       <c r="D116">
         <v>19.5</v>
       </c>
       <c r="E116">
-        <v>89.7</v>
+        <v>0.5</v>
       </c>
       <c r="F116">
         <v>0</v>
@@ -4718,7 +4720,7 @@
         <v>1</v>
       </c>
       <c r="J116" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
@@ -4729,13 +4731,13 @@
         <v>0</v>
       </c>
       <c r="C117">
-        <v>0.7</v>
+        <v>61.6</v>
       </c>
       <c r="D117">
         <v>24.3</v>
       </c>
       <c r="E117">
-        <v>61.6</v>
+        <v>0.7</v>
       </c>
       <c r="F117">
         <v>0</v>
@@ -4750,7 +4752,7 @@
         <v>0</v>
       </c>
       <c r="J117" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
@@ -4761,13 +4763,13 @@
         <v>0</v>
       </c>
       <c r="C118">
-        <v>1</v>
+        <v>72.7</v>
       </c>
       <c r="D118">
         <v>33</v>
       </c>
       <c r="E118">
-        <v>72.7</v>
+        <v>1</v>
       </c>
       <c r="F118">
         <v>0</v>
@@ -4782,7 +4784,7 @@
         <v>2</v>
       </c>
       <c r="J118" t="s">
-        <v>131</v>
+        <v>207</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
@@ -4793,13 +4795,13 @@
         <v>0</v>
       </c>
       <c r="C119">
-        <v>2.5</v>
+        <v>74.599999999999994</v>
       </c>
       <c r="D119">
         <v>29.5</v>
       </c>
       <c r="E119">
-        <v>74.599999999999994</v>
+        <v>2.5</v>
       </c>
       <c r="F119">
         <v>1.5</v>
@@ -4814,7 +4816,7 @@
         <v>2</v>
       </c>
       <c r="J119" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
@@ -4825,13 +4827,13 @@
         <v>0</v>
       </c>
       <c r="C120">
-        <v>0.5</v>
+        <v>90.1</v>
       </c>
       <c r="D120">
         <v>50.5</v>
       </c>
       <c r="E120">
-        <v>90.1</v>
+        <v>0.5</v>
       </c>
       <c r="F120">
         <v>0</v>
@@ -4846,7 +4848,7 @@
         <v>1</v>
       </c>
       <c r="J120" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
@@ -4857,13 +4859,13 @@
         <v>0</v>
       </c>
       <c r="C121">
-        <v>2.7</v>
+        <v>84.3</v>
       </c>
       <c r="D121">
         <v>46.7</v>
       </c>
       <c r="E121">
-        <v>84.3</v>
+        <v>2.7</v>
       </c>
       <c r="F121">
         <v>0.3</v>
@@ -4878,7 +4880,7 @@
         <v>2</v>
       </c>
       <c r="J121" t="s">
-        <v>134</v>
+        <v>208</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
@@ -4889,13 +4891,13 @@
         <v>0</v>
       </c>
       <c r="C122">
-        <v>0</v>
+        <v>73.7</v>
       </c>
       <c r="D122">
         <v>9.5</v>
       </c>
       <c r="E122">
-        <v>73.7</v>
+        <v>0</v>
       </c>
       <c r="F122">
         <v>0</v>
@@ -4910,7 +4912,7 @@
         <v>2</v>
       </c>
       <c r="J122" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
@@ -4921,13 +4923,13 @@
         <v>1</v>
       </c>
       <c r="C123">
-        <v>0.7</v>
+        <v>79</v>
       </c>
       <c r="D123">
         <v>27</v>
       </c>
       <c r="E123">
-        <v>79</v>
+        <v>0.7</v>
       </c>
       <c r="F123">
         <v>0.3</v>
@@ -4942,7 +4944,7 @@
         <v>0</v>
       </c>
       <c r="J123" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
@@ -4953,13 +4955,13 @@
         <v>0</v>
       </c>
       <c r="C124">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="D124">
         <v>72.7</v>
       </c>
       <c r="E124">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="F124">
         <v>0</v>
@@ -4974,7 +4976,7 @@
         <v>1</v>
       </c>
       <c r="J124" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
@@ -4985,13 +4987,13 @@
         <v>0</v>
       </c>
       <c r="C125">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="D125">
         <v>36</v>
       </c>
       <c r="E125">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="F125">
         <v>0</v>
@@ -5006,7 +5008,7 @@
         <v>1</v>
       </c>
       <c r="J125" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
@@ -5017,13 +5019,13 @@
         <v>0</v>
       </c>
       <c r="C126">
-        <v>0</v>
+        <v>86.4</v>
       </c>
       <c r="D126">
         <v>59</v>
       </c>
       <c r="E126">
-        <v>86.4</v>
+        <v>0</v>
       </c>
       <c r="F126">
         <v>0.3</v>
@@ -5038,7 +5040,7 @@
         <v>1</v>
       </c>
       <c r="J126" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
@@ -5049,13 +5051,13 @@
         <v>0</v>
       </c>
       <c r="C127">
-        <v>1.5</v>
+        <v>84.2</v>
       </c>
       <c r="D127">
         <v>19</v>
       </c>
       <c r="E127">
-        <v>84.2</v>
+        <v>1.5</v>
       </c>
       <c r="F127">
         <v>0.5</v>
@@ -5070,7 +5072,7 @@
         <v>2</v>
       </c>
       <c r="J127" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
@@ -5081,13 +5083,13 @@
         <v>0</v>
       </c>
       <c r="C128">
-        <v>2.5</v>
+        <v>88.7</v>
       </c>
       <c r="D128">
         <v>75</v>
       </c>
       <c r="E128">
-        <v>88.7</v>
+        <v>2.5</v>
       </c>
       <c r="F128">
         <v>1</v>
@@ -5102,7 +5104,7 @@
         <v>2</v>
       </c>
       <c r="J128" t="s">
-        <v>141</v>
+        <v>213</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
@@ -5113,13 +5115,13 @@
         <v>0</v>
       </c>
       <c r="C129">
-        <v>1</v>
+        <v>88.8</v>
       </c>
       <c r="D129">
         <v>38.700000000000003</v>
       </c>
       <c r="E129">
-        <v>88.8</v>
+        <v>1</v>
       </c>
       <c r="F129">
         <v>0.3</v>
@@ -5134,7 +5136,7 @@
         <v>2</v>
       </c>
       <c r="J129" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
@@ -5145,13 +5147,13 @@
         <v>0</v>
       </c>
       <c r="C130">
-        <v>1.7</v>
+        <v>84.6</v>
       </c>
       <c r="D130">
         <v>71.3</v>
       </c>
       <c r="E130">
-        <v>84.6</v>
+        <v>1.7</v>
       </c>
       <c r="F130">
         <v>0.3</v>
@@ -5166,7 +5168,7 @@
         <v>2</v>
       </c>
       <c r="J130" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
@@ -5177,13 +5179,13 @@
         <v>0</v>
       </c>
       <c r="C131">
-        <v>1</v>
+        <v>83.6</v>
       </c>
       <c r="D131">
         <v>55</v>
       </c>
       <c r="E131">
-        <v>83.6</v>
+        <v>1</v>
       </c>
       <c r="F131">
         <v>0</v>
@@ -5198,7 +5200,7 @@
         <v>2</v>
       </c>
       <c r="J131" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
@@ -5209,13 +5211,13 @@
         <v>0</v>
       </c>
       <c r="C132">
-        <v>0.3</v>
+        <v>86.3</v>
       </c>
       <c r="D132">
         <v>17</v>
       </c>
       <c r="E132">
-        <v>86.3</v>
+        <v>0.3</v>
       </c>
       <c r="F132">
         <v>0.3</v>
@@ -5230,7 +5232,7 @@
         <v>2</v>
       </c>
       <c r="J132" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
@@ -5241,13 +5243,13 @@
         <v>0</v>
       </c>
       <c r="C133">
-        <v>0.3</v>
+        <v>76.8</v>
       </c>
       <c r="D133">
         <v>23</v>
       </c>
       <c r="E133">
-        <v>76.8</v>
+        <v>0.3</v>
       </c>
       <c r="F133">
         <v>0.3</v>
@@ -5262,7 +5264,7 @@
         <v>1</v>
       </c>
       <c r="J133" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
@@ -5273,13 +5275,13 @@
         <v>1</v>
       </c>
       <c r="C134">
-        <v>0.7</v>
+        <v>91.8</v>
       </c>
       <c r="D134">
         <v>44.7</v>
       </c>
       <c r="E134">
-        <v>91.8</v>
+        <v>0.7</v>
       </c>
       <c r="F134">
         <v>0.3</v>
@@ -5294,7 +5296,7 @@
         <v>1</v>
       </c>
       <c r="J134" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
@@ -5305,13 +5307,13 @@
         <v>0</v>
       </c>
       <c r="C135">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="D135">
         <v>16</v>
       </c>
       <c r="E135">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="F135">
         <v>0</v>
@@ -5326,7 +5328,7 @@
         <v>0</v>
       </c>
       <c r="J135" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
@@ -5337,13 +5339,13 @@
         <v>0</v>
       </c>
       <c r="C136">
-        <v>1</v>
+        <v>87.2</v>
       </c>
       <c r="D136">
         <v>62.7</v>
       </c>
       <c r="E136">
-        <v>87.2</v>
+        <v>1</v>
       </c>
       <c r="F136">
         <v>0.3</v>
@@ -5358,7 +5360,7 @@
         <v>2</v>
       </c>
       <c r="J136" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
@@ -5369,13 +5371,13 @@
         <v>0</v>
       </c>
       <c r="C137">
-        <v>0.3</v>
+        <v>49.4</v>
       </c>
       <c r="D137">
         <v>27.7</v>
       </c>
       <c r="E137">
-        <v>49.4</v>
+        <v>0.3</v>
       </c>
       <c r="F137">
         <v>0</v>
@@ -5390,7 +5392,7 @@
         <v>3</v>
       </c>
       <c r="J137" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
@@ -5401,13 +5403,13 @@
         <v>0</v>
       </c>
       <c r="C138">
-        <v>0</v>
+        <v>41.9</v>
       </c>
       <c r="D138">
         <v>28.7</v>
       </c>
       <c r="E138">
-        <v>41.9</v>
+        <v>0</v>
       </c>
       <c r="F138">
         <v>0</v>
@@ -5422,7 +5424,7 @@
         <v>3</v>
       </c>
       <c r="J138" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
@@ -5433,13 +5435,13 @@
         <v>0</v>
       </c>
       <c r="C139">
-        <v>0.7</v>
+        <v>81.7</v>
       </c>
       <c r="D139">
         <v>47.3</v>
       </c>
       <c r="E139">
-        <v>81.7</v>
+        <v>0.7</v>
       </c>
       <c r="F139">
         <v>0.3</v>
@@ -5454,7 +5456,7 @@
         <v>1</v>
       </c>
       <c r="J139" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
@@ -5465,13 +5467,13 @@
         <v>1</v>
       </c>
       <c r="C140">
-        <v>0.5</v>
+        <v>72</v>
       </c>
       <c r="D140">
         <v>12.5</v>
       </c>
       <c r="E140">
-        <v>72</v>
+        <v>0.5</v>
       </c>
       <c r="F140">
         <v>0</v>
@@ -5486,7 +5488,7 @@
         <v>1</v>
       </c>
       <c r="J140" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
@@ -5497,13 +5499,13 @@
         <v>0</v>
       </c>
       <c r="C141">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="D141">
         <v>43</v>
       </c>
       <c r="E141">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="F141">
         <v>0</v>
@@ -5518,7 +5520,7 @@
         <v>1</v>
       </c>
       <c r="J141" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
@@ -5529,13 +5531,13 @@
         <v>0</v>
       </c>
       <c r="C142">
-        <v>0</v>
+        <v>72.5</v>
       </c>
       <c r="D142">
         <v>20</v>
       </c>
       <c r="E142">
-        <v>72.5</v>
+        <v>0</v>
       </c>
       <c r="F142">
         <v>0</v>
@@ -5550,7 +5552,7 @@
         <v>1</v>
       </c>
       <c r="J142" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
@@ -5561,13 +5563,13 @@
         <v>0</v>
       </c>
       <c r="C143">
-        <v>1</v>
+        <v>84.8</v>
       </c>
       <c r="D143">
         <v>33</v>
       </c>
       <c r="E143">
-        <v>84.8</v>
+        <v>1</v>
       </c>
       <c r="F143">
         <v>0.7</v>
@@ -5582,7 +5584,7 @@
         <v>1</v>
       </c>
       <c r="J143" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
@@ -5593,13 +5595,13 @@
         <v>1</v>
       </c>
       <c r="C144">
-        <v>2.2999999999999998</v>
+        <v>87</v>
       </c>
       <c r="D144">
         <v>36</v>
       </c>
       <c r="E144">
-        <v>87</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="F144">
         <v>0.7</v>
@@ -5614,7 +5616,7 @@
         <v>2</v>
       </c>
       <c r="J144" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
@@ -5625,13 +5627,13 @@
         <v>0</v>
       </c>
       <c r="C145">
-        <v>1.7</v>
+        <v>79.2</v>
       </c>
       <c r="D145">
         <v>43.3</v>
       </c>
       <c r="E145">
-        <v>79.2</v>
+        <v>1.7</v>
       </c>
       <c r="F145">
         <v>1.3</v>
@@ -5646,7 +5648,7 @@
         <v>2</v>
       </c>
       <c r="J145" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
@@ -5657,13 +5659,13 @@
         <v>1</v>
       </c>
       <c r="C146">
-        <v>2</v>
+        <v>80.2</v>
       </c>
       <c r="D146">
         <v>55.7</v>
       </c>
       <c r="E146">
-        <v>80.2</v>
+        <v>2</v>
       </c>
       <c r="F146">
         <v>1</v>
@@ -5678,7 +5680,7 @@
         <v>1</v>
       </c>
       <c r="J146" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
@@ -5689,13 +5691,13 @@
         <v>1</v>
       </c>
       <c r="C147">
-        <v>1.3</v>
+        <v>84.3</v>
       </c>
       <c r="D147">
         <v>23.3</v>
       </c>
       <c r="E147">
-        <v>84.3</v>
+        <v>1.3</v>
       </c>
       <c r="F147">
         <v>0.7</v>
@@ -5710,7 +5712,7 @@
         <v>2</v>
       </c>
       <c r="J147" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
@@ -5721,13 +5723,13 @@
         <v>0</v>
       </c>
       <c r="C148">
-        <v>0.3</v>
+        <v>89.2</v>
       </c>
       <c r="D148">
         <v>31</v>
       </c>
       <c r="E148">
-        <v>89.2</v>
+        <v>0.3</v>
       </c>
       <c r="F148">
         <v>0</v>
@@ -5742,7 +5744,7 @@
         <v>2</v>
       </c>
       <c r="J148" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
@@ -5753,13 +5755,13 @@
         <v>0</v>
       </c>
       <c r="C149">
-        <v>0.5</v>
+        <v>76</v>
       </c>
       <c r="D149">
         <v>12.5</v>
       </c>
       <c r="E149">
-        <v>76</v>
+        <v>0.5</v>
       </c>
       <c r="F149">
         <v>0</v>
@@ -5774,7 +5776,7 @@
         <v>0</v>
       </c>
       <c r="J149" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
@@ -5785,13 +5787,13 @@
         <v>2</v>
       </c>
       <c r="C150">
-        <v>1.3</v>
+        <v>83.2</v>
       </c>
       <c r="D150">
         <v>45.7</v>
       </c>
       <c r="E150">
-        <v>83.2</v>
+        <v>1.3</v>
       </c>
       <c r="F150">
         <v>0.3</v>
@@ -5806,7 +5808,7 @@
         <v>2</v>
       </c>
       <c r="J150" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
@@ -5817,13 +5819,13 @@
         <v>0</v>
       </c>
       <c r="C151">
-        <v>1</v>
+        <v>86.3</v>
       </c>
       <c r="D151">
         <v>51</v>
       </c>
       <c r="E151">
-        <v>86.3</v>
+        <v>1</v>
       </c>
       <c r="F151">
         <v>0</v>
@@ -5838,7 +5840,7 @@
         <v>2</v>
       </c>
       <c r="J151" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
@@ -5849,13 +5851,13 @@
         <v>1</v>
       </c>
       <c r="C152">
-        <v>1</v>
+        <v>69.7</v>
       </c>
       <c r="D152">
         <v>25.3</v>
       </c>
       <c r="E152">
-        <v>69.7</v>
+        <v>1</v>
       </c>
       <c r="F152">
         <v>0</v>
@@ -5870,7 +5872,7 @@
         <v>2</v>
       </c>
       <c r="J152" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.25">
@@ -5881,13 +5883,13 @@
         <v>0</v>
       </c>
       <c r="C153">
-        <v>0.3</v>
+        <v>69.599999999999994</v>
       </c>
       <c r="D153">
         <v>15.3</v>
       </c>
       <c r="E153">
-        <v>69.599999999999994</v>
+        <v>0.3</v>
       </c>
       <c r="F153">
         <v>0</v>
@@ -5902,7 +5904,7 @@
         <v>0</v>
       </c>
       <c r="J153" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.25">
@@ -5913,13 +5915,13 @@
         <v>0</v>
       </c>
       <c r="C154">
-        <v>0</v>
+        <v>92.7</v>
       </c>
       <c r="D154">
         <v>50</v>
       </c>
       <c r="E154">
-        <v>92.7</v>
+        <v>0</v>
       </c>
       <c r="F154">
         <v>0</v>
@@ -5934,7 +5936,7 @@
         <v>2</v>
       </c>
       <c r="J154" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
@@ -5945,13 +5947,13 @@
         <v>0</v>
       </c>
       <c r="C155">
-        <v>1</v>
+        <v>93.2</v>
       </c>
       <c r="D155">
         <v>24.7</v>
       </c>
       <c r="E155">
-        <v>93.2</v>
+        <v>1</v>
       </c>
       <c r="F155">
         <v>0.3</v>
@@ -5966,7 +5968,7 @@
         <v>2</v>
       </c>
       <c r="J155" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.25">
@@ -5977,13 +5979,13 @@
         <v>0</v>
       </c>
       <c r="C156">
-        <v>1</v>
+        <v>73.900000000000006</v>
       </c>
       <c r="D156">
         <v>23</v>
       </c>
       <c r="E156">
-        <v>73.900000000000006</v>
+        <v>1</v>
       </c>
       <c r="F156">
         <v>0</v>
@@ -5998,7 +6000,7 @@
         <v>0</v>
       </c>
       <c r="J156" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.25">
@@ -6009,13 +6011,13 @@
         <v>0</v>
       </c>
       <c r="C157">
-        <v>0</v>
+        <v>89.9</v>
       </c>
       <c r="D157">
         <v>62.7</v>
       </c>
       <c r="E157">
-        <v>89.9</v>
+        <v>0</v>
       </c>
       <c r="F157">
         <v>0</v>
@@ -6030,7 +6032,7 @@
         <v>1</v>
       </c>
       <c r="J157" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.25">
@@ -6041,13 +6043,13 @@
         <v>0</v>
       </c>
       <c r="C158">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D158">
         <v>35</v>
       </c>
       <c r="E158">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="F158">
         <v>0</v>
@@ -6062,7 +6064,7 @@
         <v>1</v>
       </c>
       <c r="J158" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.25">
@@ -6073,13 +6075,13 @@
         <v>0</v>
       </c>
       <c r="C159">
-        <v>0.3</v>
+        <v>77.599999999999994</v>
       </c>
       <c r="D159">
         <v>49</v>
       </c>
       <c r="E159">
-        <v>77.599999999999994</v>
+        <v>0.3</v>
       </c>
       <c r="F159">
         <v>1</v>
@@ -6094,7 +6096,7 @@
         <v>2</v>
       </c>
       <c r="J159" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.25">
@@ -6105,13 +6107,13 @@
         <v>0</v>
       </c>
       <c r="C160">
-        <v>0</v>
+        <v>81.8</v>
       </c>
       <c r="D160">
         <v>11</v>
       </c>
       <c r="E160">
-        <v>81.8</v>
+        <v>0</v>
       </c>
       <c r="F160">
         <v>0</v>
@@ -6126,7 +6128,7 @@
         <v>0</v>
       </c>
       <c r="J160" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.25">
@@ -6137,13 +6139,13 @@
         <v>0</v>
       </c>
       <c r="C161">
-        <v>0.3</v>
+        <v>89</v>
       </c>
       <c r="D161">
         <v>48.7</v>
       </c>
       <c r="E161">
-        <v>89</v>
+        <v>0.3</v>
       </c>
       <c r="F161">
         <v>0</v>
@@ -6158,7 +6160,7 @@
         <v>1</v>
       </c>
       <c r="J161" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.25">
@@ -6169,13 +6171,13 @@
         <v>0</v>
       </c>
       <c r="C162">
-        <v>0.3</v>
+        <v>77.599999999999994</v>
       </c>
       <c r="D162">
         <v>16.3</v>
       </c>
       <c r="E162">
-        <v>77.599999999999994</v>
+        <v>0.3</v>
       </c>
       <c r="F162">
         <v>0</v>
@@ -6190,7 +6192,7 @@
         <v>1</v>
       </c>
       <c r="J162" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.25">
@@ -6201,13 +6203,13 @@
         <v>0</v>
       </c>
       <c r="C163">
-        <v>0</v>
+        <v>73.900000000000006</v>
       </c>
       <c r="D163">
         <v>44.7</v>
       </c>
       <c r="E163">
-        <v>73.900000000000006</v>
+        <v>0</v>
       </c>
       <c r="F163">
         <v>0</v>
@@ -6222,7 +6224,7 @@
         <v>1</v>
       </c>
       <c r="J163" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.25">
@@ -6233,13 +6235,13 @@
         <v>1</v>
       </c>
       <c r="C164">
-        <v>1.3</v>
+        <v>75.599999999999994</v>
       </c>
       <c r="D164">
         <v>15</v>
       </c>
       <c r="E164">
-        <v>75.599999999999994</v>
+        <v>1.3</v>
       </c>
       <c r="F164">
         <v>1</v>
@@ -6254,7 +6256,7 @@
         <v>1</v>
       </c>
       <c r="J164" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.25">
@@ -6265,13 +6267,13 @@
         <v>0</v>
       </c>
       <c r="C165">
-        <v>0.3</v>
+        <v>84.3</v>
       </c>
       <c r="D165">
         <v>23.3</v>
       </c>
       <c r="E165">
-        <v>84.3</v>
+        <v>0.3</v>
       </c>
       <c r="F165">
         <v>0</v>
@@ -6286,7 +6288,7 @@
         <v>2</v>
       </c>
       <c r="J165" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.25">
@@ -6297,13 +6299,13 @@
         <v>0</v>
       </c>
       <c r="C166">
-        <v>0.3</v>
+        <v>81.900000000000006</v>
       </c>
       <c r="D166">
         <v>38.700000000000003</v>
       </c>
       <c r="E166">
-        <v>81.900000000000006</v>
+        <v>0.3</v>
       </c>
       <c r="F166">
         <v>0</v>
@@ -6318,7 +6320,7 @@
         <v>1</v>
       </c>
       <c r="J166" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.25">
@@ -6329,13 +6331,13 @@
         <v>0</v>
       </c>
       <c r="C167">
-        <v>2</v>
+        <v>79.5</v>
       </c>
       <c r="D167">
         <v>22</v>
       </c>
       <c r="E167">
-        <v>79.5</v>
+        <v>2</v>
       </c>
       <c r="F167">
         <v>1</v>
@@ -6350,7 +6352,7 @@
         <v>0</v>
       </c>
       <c r="J167" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.25">
@@ -6361,13 +6363,13 @@
         <v>0</v>
       </c>
       <c r="C168">
-        <v>0</v>
+        <v>85.1</v>
       </c>
       <c r="D168">
         <v>43.5</v>
       </c>
       <c r="E168">
-        <v>85.1</v>
+        <v>0</v>
       </c>
       <c r="F168">
         <v>1</v>
@@ -6382,7 +6384,7 @@
         <v>1</v>
       </c>
       <c r="J168" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.25">
@@ -6393,13 +6395,13 @@
         <v>0</v>
       </c>
       <c r="C169">
-        <v>0.3</v>
+        <v>74.2</v>
       </c>
       <c r="D169">
         <v>22</v>
       </c>
       <c r="E169">
-        <v>74.2</v>
+        <v>0.3</v>
       </c>
       <c r="F169">
         <v>0</v>
@@ -6414,7 +6416,7 @@
         <v>0</v>
       </c>
       <c r="J169" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.25">
@@ -6425,13 +6427,13 @@
         <v>0</v>
       </c>
       <c r="C170">
-        <v>0</v>
+        <v>61.2</v>
       </c>
       <c r="D170">
         <v>22.3</v>
       </c>
       <c r="E170">
-        <v>61.2</v>
+        <v>0</v>
       </c>
       <c r="F170">
         <v>0</v>
@@ -6446,7 +6448,7 @@
         <v>3</v>
       </c>
       <c r="J170" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.25">
@@ -6457,13 +6459,13 @@
         <v>1</v>
       </c>
       <c r="C171">
-        <v>2.7</v>
+        <v>91.9</v>
       </c>
       <c r="D171">
         <v>62</v>
       </c>
       <c r="E171">
-        <v>91.9</v>
+        <v>2.7</v>
       </c>
       <c r="F171">
         <v>0.3</v>
@@ -6478,7 +6480,7 @@
         <v>2</v>
       </c>
       <c r="J171" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.25">
@@ -6489,13 +6491,13 @@
         <v>0</v>
       </c>
       <c r="C172">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="D172">
         <v>13.3</v>
       </c>
       <c r="E172">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="F172">
         <v>0</v>
@@ -6510,7 +6512,7 @@
         <v>0</v>
       </c>
       <c r="J172" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.25">
@@ -6521,13 +6523,13 @@
         <v>0</v>
       </c>
       <c r="C173">
-        <v>3</v>
+        <v>78.599999999999994</v>
       </c>
       <c r="D173">
         <v>14</v>
       </c>
       <c r="E173">
-        <v>78.599999999999994</v>
+        <v>3</v>
       </c>
       <c r="F173">
         <v>3</v>
@@ -6542,7 +6544,7 @@
         <v>2</v>
       </c>
       <c r="J173" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.25">
@@ -6553,13 +6555,13 @@
         <v>0</v>
       </c>
       <c r="C174">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="D174">
         <v>41.7</v>
       </c>
       <c r="E174">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="F174">
         <v>0</v>
@@ -6574,7 +6576,7 @@
         <v>2</v>
       </c>
       <c r="J174" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.25">
@@ -6585,13 +6587,13 @@
         <v>0</v>
       </c>
       <c r="C175">
-        <v>1.3</v>
+        <v>91.2</v>
       </c>
       <c r="D175">
         <v>49.3</v>
       </c>
       <c r="E175">
-        <v>91.2</v>
+        <v>1.3</v>
       </c>
       <c r="F175">
         <v>1.3</v>
@@ -6606,7 +6608,7 @@
         <v>2</v>
       </c>
       <c r="J175" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.25">
@@ -6617,13 +6619,13 @@
         <v>0</v>
       </c>
       <c r="C176">
-        <v>0.7</v>
+        <v>88.8</v>
       </c>
       <c r="D176">
         <v>53.7</v>
       </c>
       <c r="E176">
-        <v>88.8</v>
+        <v>0.7</v>
       </c>
       <c r="F176">
         <v>0</v>
@@ -6638,7 +6640,7 @@
         <v>2</v>
       </c>
       <c r="J176" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.25">
@@ -6649,13 +6651,13 @@
         <v>0</v>
       </c>
       <c r="C177">
-        <v>0</v>
+        <v>84.4</v>
       </c>
       <c r="D177">
         <v>15</v>
       </c>
       <c r="E177">
-        <v>84.4</v>
+        <v>0</v>
       </c>
       <c r="F177">
         <v>0</v>
@@ -6670,7 +6672,7 @@
         <v>0</v>
       </c>
       <c r="J177" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.25">
@@ -6681,13 +6683,13 @@
         <v>0</v>
       </c>
       <c r="C178">
-        <v>0</v>
+        <v>88.6</v>
       </c>
       <c r="D178">
         <v>44</v>
       </c>
       <c r="E178">
-        <v>88.6</v>
+        <v>0</v>
       </c>
       <c r="F178">
         <v>0</v>
@@ -6702,7 +6704,7 @@
         <v>1</v>
       </c>
       <c r="J178" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.25">
@@ -6713,13 +6715,13 @@
         <v>0</v>
       </c>
       <c r="C179">
-        <v>1</v>
+        <v>94.1</v>
       </c>
       <c r="D179">
         <v>17</v>
       </c>
       <c r="E179">
-        <v>94.1</v>
+        <v>1</v>
       </c>
       <c r="F179">
         <v>0</v>
@@ -6734,7 +6736,7 @@
         <v>1</v>
       </c>
       <c r="J179" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.25">
@@ -6745,13 +6747,13 @@
         <v>0</v>
       </c>
       <c r="C180">
-        <v>0.5</v>
+        <v>71.8</v>
       </c>
       <c r="D180">
         <v>19.5</v>
       </c>
       <c r="E180">
-        <v>71.8</v>
+        <v>0.5</v>
       </c>
       <c r="F180">
         <v>1.5</v>
@@ -6766,7 +6768,7 @@
         <v>1</v>
       </c>
       <c r="J180" t="s">
-        <v>193</v>
+        <v>209</v>
       </c>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.25">
@@ -6777,13 +6779,13 @@
         <v>0</v>
       </c>
       <c r="C181">
-        <v>3</v>
+        <v>92.9</v>
       </c>
       <c r="D181">
         <v>28</v>
       </c>
       <c r="E181">
-        <v>92.9</v>
+        <v>3</v>
       </c>
       <c r="F181">
         <v>2</v>
@@ -6798,7 +6800,7 @@
         <v>2</v>
       </c>
       <c r="J181" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.25">
@@ -6809,13 +6811,13 @@
         <v>0</v>
       </c>
       <c r="C182">
-        <v>0</v>
+        <v>69.900000000000006</v>
       </c>
       <c r="D182">
         <v>31</v>
       </c>
       <c r="E182">
-        <v>69.900000000000006</v>
+        <v>0</v>
       </c>
       <c r="F182">
         <v>0</v>
@@ -6830,7 +6832,7 @@
         <v>3</v>
       </c>
       <c r="J182" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.25">
@@ -6841,13 +6843,13 @@
         <v>0</v>
       </c>
       <c r="C183">
-        <v>0</v>
+        <v>84.2</v>
       </c>
       <c r="D183">
         <v>40</v>
       </c>
       <c r="E183">
-        <v>84.2</v>
+        <v>0</v>
       </c>
       <c r="F183">
         <v>0.3</v>
@@ -6862,7 +6864,7 @@
         <v>1</v>
       </c>
       <c r="J183" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.25">
@@ -6873,13 +6875,13 @@
         <v>0</v>
       </c>
       <c r="C184">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="D184">
         <v>8</v>
       </c>
       <c r="E184">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="F184">
         <v>1</v>
@@ -6894,7 +6896,7 @@
         <v>2</v>
       </c>
       <c r="J184" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.25">
@@ -6905,13 +6907,13 @@
         <v>1</v>
       </c>
       <c r="C185">
-        <v>0.7</v>
+        <v>82.9</v>
       </c>
       <c r="D185">
         <v>23.3</v>
       </c>
       <c r="E185">
-        <v>82.9</v>
+        <v>0.7</v>
       </c>
       <c r="F185">
         <v>0</v>
@@ -6926,7 +6928,7 @@
         <v>0</v>
       </c>
       <c r="J185" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.25">
@@ -6937,13 +6939,13 @@
         <v>0</v>
       </c>
       <c r="C186">
-        <v>0</v>
+        <v>60.3</v>
       </c>
       <c r="D186">
         <v>21</v>
       </c>
       <c r="E186">
-        <v>60.3</v>
+        <v>0</v>
       </c>
       <c r="F186">
         <v>0</v>
@@ -6958,7 +6960,7 @@
         <v>3</v>
       </c>
       <c r="J186" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.25">
@@ -6969,13 +6971,13 @@
         <v>0</v>
       </c>
       <c r="C187">
-        <v>1</v>
+        <v>76.3</v>
       </c>
       <c r="D187">
         <v>39.299999999999997</v>
       </c>
       <c r="E187">
-        <v>76.3</v>
+        <v>1</v>
       </c>
       <c r="F187">
         <v>0.3</v>
@@ -6990,7 +6992,7 @@
         <v>1</v>
       </c>
       <c r="J187" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.25">
@@ -7001,13 +7003,13 @@
         <v>0</v>
       </c>
       <c r="C188">
-        <v>0.7</v>
+        <v>45.9</v>
       </c>
       <c r="D188">
         <v>24.7</v>
       </c>
       <c r="E188">
-        <v>45.9</v>
+        <v>0.7</v>
       </c>
       <c r="F188">
         <v>0</v>
@@ -7022,7 +7024,7 @@
         <v>3</v>
       </c>
       <c r="J188" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.25">
@@ -7033,13 +7035,13 @@
         <v>0</v>
       </c>
       <c r="C189">
-        <v>0.7</v>
+        <v>84.2</v>
       </c>
       <c r="D189">
         <v>33.700000000000003</v>
       </c>
       <c r="E189">
-        <v>84.2</v>
+        <v>0.7</v>
       </c>
       <c r="F189">
         <v>0</v>
@@ -7054,7 +7056,7 @@
         <v>2</v>
       </c>
       <c r="J189" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.25">
@@ -7065,13 +7067,13 @@
         <v>0</v>
       </c>
       <c r="C190">
-        <v>0</v>
+        <v>52.6</v>
       </c>
       <c r="D190">
         <v>19</v>
       </c>
       <c r="E190">
-        <v>52.6</v>
+        <v>0</v>
       </c>
       <c r="F190">
         <v>0.5</v>
@@ -7086,7 +7088,7 @@
         <v>0</v>
       </c>
       <c r="J190" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.25">
@@ -7097,13 +7099,13 @@
         <v>1</v>
       </c>
       <c r="C191">
-        <v>1</v>
+        <v>83.6</v>
       </c>
       <c r="D191">
         <v>22.3</v>
       </c>
       <c r="E191">
-        <v>83.6</v>
+        <v>1</v>
       </c>
       <c r="F191">
         <v>0.3</v>
@@ -7118,7 +7120,7 @@
         <v>1</v>
       </c>
       <c r="J191" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.25">
@@ -7129,13 +7131,13 @@
         <v>0</v>
       </c>
       <c r="C192">
-        <v>1</v>
+        <v>76.3</v>
       </c>
       <c r="D192">
         <v>40</v>
       </c>
       <c r="E192">
-        <v>76.3</v>
+        <v>1</v>
       </c>
       <c r="F192">
         <v>0.5</v>
@@ -7150,7 +7152,7 @@
         <v>1</v>
       </c>
       <c r="J192" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.25">
@@ -7161,13 +7163,13 @@
         <v>0</v>
       </c>
       <c r="C193">
-        <v>1.7</v>
+        <v>90.1</v>
       </c>
       <c r="D193">
         <v>53.7</v>
       </c>
       <c r="E193">
-        <v>90.1</v>
+        <v>1.7</v>
       </c>
       <c r="F193">
         <v>2</v>
@@ -7182,7 +7184,7 @@
         <v>1</v>
       </c>
       <c r="J193" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.25">
@@ -7193,13 +7195,13 @@
         <v>1</v>
       </c>
       <c r="C194">
-        <v>0.3</v>
+        <v>88.6</v>
       </c>
       <c r="D194">
         <v>73</v>
       </c>
       <c r="E194">
-        <v>88.6</v>
+        <v>0.3</v>
       </c>
       <c r="F194">
         <v>0.3</v>
@@ -7214,7 +7216,7 @@
         <v>2</v>
       </c>
       <c r="J194" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.25">
@@ -7225,13 +7227,13 @@
         <v>0</v>
       </c>
       <c r="C195">
-        <v>0.3</v>
+        <v>91.1</v>
       </c>
       <c r="D195">
         <v>93.3</v>
       </c>
       <c r="E195">
-        <v>91.1</v>
+        <v>0.3</v>
       </c>
       <c r="F195">
         <v>0</v>
@@ -7246,7 +7248,7 @@
         <v>2</v>
       </c>
       <c r="J195" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.25">
@@ -7257,13 +7259,13 @@
         <v>0</v>
       </c>
       <c r="C196">
-        <v>0</v>
+        <v>78.099999999999994</v>
       </c>
       <c r="D196">
         <v>38</v>
       </c>
       <c r="E196">
-        <v>78.099999999999994</v>
+        <v>0</v>
       </c>
       <c r="F196">
         <v>0</v>
@@ -7278,7 +7280,7 @@
         <v>1</v>
       </c>
       <c r="J196" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.25">
@@ -7289,13 +7291,13 @@
         <v>1</v>
       </c>
       <c r="C197">
-        <v>1.3</v>
+        <v>69.400000000000006</v>
       </c>
       <c r="D197">
         <v>20.7</v>
       </c>
       <c r="E197">
-        <v>69.400000000000006</v>
+        <v>1.3</v>
       </c>
       <c r="F197">
         <v>1.3</v>
@@ -7310,7 +7312,7 @@
         <v>2</v>
       </c>
       <c r="J197" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.25">
@@ -7321,13 +7323,13 @@
         <v>0</v>
       </c>
       <c r="C198">
-        <v>0.7</v>
+        <v>82.3</v>
       </c>
       <c r="D198">
         <v>41.3</v>
       </c>
       <c r="E198">
-        <v>82.3</v>
+        <v>0.7</v>
       </c>
       <c r="F198">
         <v>1</v>
@@ -7342,7 +7344,7 @@
         <v>1</v>
       </c>
       <c r="J198" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.25">
@@ -7353,13 +7355,13 @@
         <v>0</v>
       </c>
       <c r="C199">
-        <v>0</v>
+        <v>66.7</v>
       </c>
       <c r="D199">
         <v>27</v>
       </c>
       <c r="E199">
-        <v>66.7</v>
+        <v>0</v>
       </c>
       <c r="F199">
         <v>0</v>
@@ -7374,7 +7376,7 @@
         <v>2</v>
       </c>
       <c r="J199" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.25">
@@ -7385,13 +7387,13 @@
         <v>0</v>
       </c>
       <c r="C200">
-        <v>0</v>
+        <v>89.4</v>
       </c>
       <c r="D200">
         <v>47</v>
       </c>
       <c r="E200">
-        <v>89.4</v>
+        <v>0</v>
       </c>
       <c r="F200">
         <v>0</v>
@@ -7406,7 +7408,7 @@
         <v>2</v>
       </c>
       <c r="J200" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.25">
@@ -7418,16 +7420,16 @@
         <v>46</v>
       </c>
       <c r="C205">
-        <f t="shared" si="0"/>
-        <v>164.2000000000001</v>
+        <f>SUM(C1:C200)</f>
+        <v>16140.900000000003</v>
       </c>
       <c r="D205">
         <f t="shared" si="0"/>
         <v>7995.6999999999989</v>
       </c>
       <c r="E205">
-        <f t="shared" si="0"/>
-        <v>16140.900000000003</v>
+        <f>SUM(E1:E200)</f>
+        <v>164.2000000000001</v>
       </c>
       <c r="F205">
         <f t="shared" si="0"/>
@@ -7450,13 +7452,13 @@
         <v>0.23</v>
       </c>
       <c r="C206">
-        <v>0.82099999999999995</v>
+        <v>80.704499999999996</v>
       </c>
       <c r="D206">
         <v>39.978499999999997</v>
       </c>
       <c r="E206">
-        <v>80.704499999999996</v>
+        <v>0.82099999999999995</v>
       </c>
       <c r="F206">
         <v>0.34949999999999998</v>
@@ -7477,16 +7479,16 @@
         <v>0.58206010845036116</v>
       </c>
       <c r="C207">
-        <f t="shared" si="1"/>
-        <v>0.84885912202510128</v>
+        <f>STDEV(C1:C200)</f>
+        <v>10.419585816766514</v>
       </c>
       <c r="D207">
         <f t="shared" si="1"/>
         <v>17.759153284345665</v>
       </c>
       <c r="E207">
-        <f t="shared" si="1"/>
-        <v>10.419585816766514</v>
+        <f>STDEV(E1:E200)</f>
+        <v>0.84885912202510128</v>
       </c>
       <c r="F207">
         <f t="shared" si="1"/>
@@ -7529,13 +7531,13 @@
         <v>7</v>
       </c>
       <c r="C211" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D211" t="s">
         <v>9</v>
       </c>
       <c r="E211" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F211" t="s">
         <v>11</v>
@@ -7549,6 +7551,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
